--- a/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
       <c r="C2">
-        <v>0.8601823708206687</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="D2">
-        <v>0.5299625468164794</v>
+        <v>0.5449438202247191</v>
       </c>
       <c r="E2">
-        <v>0.6558516801853997</v>
+        <v>0.671280276816609</v>
       </c>
       <c r="F2">
-        <v>0.5740365111561866</v>
+        <v>0.5893074119076549</v>
       </c>
       <c r="G2">
-        <v>0.537904817603626</v>
+        <v>0.5529489147116861</v>
       </c>
       <c r="H2">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157304</v>
       </c>
       <c r="I2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L2">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6603518267929634</v>
+        <v>0.6693877551020408</v>
       </c>
       <c r="C2">
-        <v>0.9138576779026217</v>
+        <v>0.9213483146067416</v>
       </c>
       <c r="D2">
-        <v>0.7666928515318147</v>
+        <v>0.7754137115839244</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8601823708206687</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="C3">
-        <v>0.5299625468164794</v>
+        <v>0.5449438202247191</v>
       </c>
       <c r="D3">
-        <v>0.6558516801853997</v>
+        <v>0.671280276816609</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
       <c r="C4">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
       <c r="D4">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
       <c r="E4">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7602670988068161</v>
+        <v>0.7716308144879573</v>
       </c>
       <c r="C5">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157304</v>
       </c>
       <c r="D5">
-        <v>0.7112722658586073</v>
+        <v>0.7233469942002666</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7602670988068161</v>
+        <v>0.7716308144879573</v>
       </c>
       <c r="C6">
-        <v>0.7219101123595506</v>
+        <v>0.7331460674157303</v>
       </c>
       <c r="D6">
-        <v>0.7112722658586071</v>
+        <v>0.7233469942002667</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
       <c r="C2">
-        <v>0.8738738738738738</v>
+        <v>0.9359430604982206</v>
       </c>
       <c r="D2">
-        <v>0.5449438202247191</v>
+        <v>0.4925093632958801</v>
       </c>
       <c r="E2">
-        <v>0.671280276816609</v>
+        <v>0.645398773006135</v>
       </c>
       <c r="F2">
-        <v>0.5893074119076549</v>
+        <v>0.5440628878775341</v>
       </c>
       <c r="G2">
-        <v>0.5529489147116861</v>
+        <v>0.5016506492553737</v>
       </c>
       <c r="H2">
-        <v>0.7331460674157304</v>
+        <v>0.7294007490636705</v>
       </c>
       <c r="I2">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="L2">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6693877551020408</v>
+        <v>0.6556543837357052</v>
       </c>
       <c r="C2">
-        <v>0.9213483146067416</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="D2">
-        <v>0.7754137115839244</v>
+        <v>0.781226343679031</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8738738738738738</v>
+        <v>0.9359430604982206</v>
       </c>
       <c r="C3">
-        <v>0.5449438202247191</v>
+        <v>0.4925093632958801</v>
       </c>
       <c r="D3">
-        <v>0.671280276816609</v>
+        <v>0.645398773006135</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
       <c r="C4">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
       <c r="D4">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
       <c r="E4">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7716308144879573</v>
+        <v>0.7957987221169629</v>
       </c>
       <c r="C5">
-        <v>0.7331460674157304</v>
+        <v>0.7294007490636705</v>
       </c>
       <c r="D5">
-        <v>0.7233469942002666</v>
+        <v>0.713312558342583</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7716308144879573</v>
+        <v>0.7957987221169629</v>
       </c>
       <c r="C6">
-        <v>0.7331460674157303</v>
+        <v>0.7294007490636704</v>
       </c>
       <c r="D6">
-        <v>0.7233469942002667</v>
+        <v>0.7133125583425831</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.5016506492553737</v>
       </c>
       <c r="H2">
-        <v>0.7294007490636705</v>
+        <v>0.8075281600246883</v>
       </c>
       <c r="I2">
         <v>263</v>

--- a/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.9359430604982206</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.4925093632958801</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.645398773006135</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F2">
-        <v>0.5440628878775341</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2">
-        <v>0.5016506492553737</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.8075281600246883</v>
+        <v>0.7901113776318927</v>
       </c>
       <c r="I2">
-        <v>263</v>
+        <v>534</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>534</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>271</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6556543837357052</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.781226343679031</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9359430604982206</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.4925093632958801</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.645398773006135</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7957987221169629</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>0.7294007490636705</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.713312558342583</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7957987221169629</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.7294007490636704</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.7133125583425831</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>263</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
